--- a/lu_questions_cond_rec_MASTER.xlsx
+++ b/lu_questions_cond_rec_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\Documents\GitHub_AB-RCSC\rc-tool_concept-library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA542A-F1AF-4353-8475-1CA1EAFE730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9633E8-B44E-4D8E-8F65-3E56EC24210E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="807" firstSheet="2" activeTab="9" xr2:uid="{A3A66B7D-82F1-429E-93DA-F36142727237}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="807" xr2:uid="{A3A66B7D-82F1-429E-93DA-F36142727237}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="15" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="lu_rec_sample_design_type" sheetId="10" r:id="rId10"/>
     <sheet name="lu_question_option" sheetId="17" r:id="rId11"/>
     <sheet name="lu_progress_bar_text_icons" sheetId="19" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">lu_approach!$A$1:$G$30</definedName>
@@ -54,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8755" uniqueCount="1809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8755" uniqueCount="1810">
   <si>
     <t>field_code</t>
   </si>
@@ -5697,18 +5699,12 @@
     <t>How many cameras do you have?</t>
   </si>
   <si>
-    <t>Is there a maximum number of months you can sample?&lt;br&gt;If so, how many?</t>
-  </si>
-  <si>
     <t>Which "state variable" do you hope to measure?&lt;br&gt;Select "Unknown" if you're not sure.</t>
   </si>
   <si>
     <t>Do you plan to strategically place camera locations to include multiple habitats or otherwise differing categories (e.g., different land cover types, or near vs. far from a disturbance)?&lt;br&gt;If so, how many covariates? (e.g., 5 different habitat types would be 5 covariates)</t>
   </si>
   <si>
-    <t>Is there a minimum number of months you can sample in total?&lt;br&gt;If so, how many?</t>
-  </si>
-  <si>
     <t>Which option best categorizes the most common Target Species?</t>
   </si>
   <si>
@@ -5926,6 +5922,15 @@
   </si>
   <si>
     <t>| Data &amp; Analysis | Do you believe that another process may be contributing to excess zeros? [Zero-inflation poisson vs. Hurdle model] | YES, NO |</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>Is there a MAXIMUM number of months you can sample?&lt;br&gt;If so, how many?</t>
+  </si>
+  <si>
+    <t>Is there a MINUMUM number of months you can sample in total?&lt;br&gt;If so, how many?</t>
   </si>
 </sst>
 </file>
@@ -9206,9 +9211,9 @@
   </sheetPr>
   <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15"/>
@@ -9220,12 +9225,12 @@
     <col min="5" max="5" width="18.125" style="76" customWidth="1"/>
     <col min="6" max="6" width="22.375" style="78" customWidth="1"/>
     <col min="7" max="7" width="35.125" style="77" customWidth="1"/>
-    <col min="8" max="8" width="44.25" style="77" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="35.125" style="77" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="44.25" style="77" customWidth="1"/>
+    <col min="9" max="9" width="35.125" style="77" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="76" customWidth="1"/>
     <col min="11" max="11" width="41.375" style="76" customWidth="1"/>
     <col min="12" max="12" width="49.375" style="76" customWidth="1"/>
-    <col min="13" max="13" width="46.75" style="76" customWidth="1"/>
+    <col min="13" max="13" width="31.75" style="76" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="25.5" style="76" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="42.25" style="77" customWidth="1"/>
     <col min="16" max="16" width="41.125" style="77" customWidth="1"/>
@@ -9246,10 +9251,10 @@
         <v>451</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C1" s="149" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="D1" s="149" t="s">
         <v>1643</v>
@@ -9258,7 +9263,7 @@
         <v>1682</v>
       </c>
       <c r="F1" s="121" t="s">
-        <v>1375</v>
+        <v>1807</v>
       </c>
       <c r="G1" s="124" t="s">
         <v>1374</v>
@@ -9362,7 +9367,7 @@
         <v>974</v>
       </c>
       <c r="I2" s="85" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="J2" s="82" t="s">
         <v>1326</v>
@@ -9447,7 +9452,7 @@
         <v>974</v>
       </c>
       <c r="I3" s="85" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="J3" s="82" t="s">
         <v>1189</v>
@@ -9540,7 +9545,7 @@
         <v>974</v>
       </c>
       <c r="I4" s="85" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="J4" s="82" t="s">
         <v>1189</v>
@@ -9633,7 +9638,7 @@
         <v>974</v>
       </c>
       <c r="I5" s="85" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="J5" s="105" t="s">
         <v>1171</v>
@@ -9728,7 +9733,7 @@
         <v>974</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="J6" s="82" t="s">
         <v>1171</v>
@@ -9823,7 +9828,7 @@
         <v>1183</v>
       </c>
       <c r="I7" s="85" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="J7" s="82" t="s">
         <v>1182</v>
@@ -9903,10 +9908,10 @@
         <v>1345</v>
       </c>
       <c r="H8" s="91" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="I8" s="85" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="J8" s="109" t="s">
         <v>1182</v>
@@ -9999,7 +10004,7 @@
         <v>1731</v>
       </c>
       <c r="I9" s="85" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="J9" s="82" t="s">
         <v>1171</v>
@@ -10092,7 +10097,7 @@
         <v>1194</v>
       </c>
       <c r="I10" s="85" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="J10" s="82" t="s">
         <v>1171</v>
@@ -10182,10 +10187,10 @@
         <v>1287</v>
       </c>
       <c r="H11" s="91" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="I11" s="85" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="J11" s="82" t="s">
         <v>1171</v>
@@ -10280,7 +10285,7 @@
         <v>1286</v>
       </c>
       <c r="I12" s="85" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="J12" s="84" t="s">
         <v>1171</v>
@@ -10372,10 +10377,10 @@
         <v>1361</v>
       </c>
       <c r="H13" s="91" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="I13" s="85" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="J13" s="82" t="s">
         <v>1171</v>
@@ -10465,10 +10470,10 @@
         <v>1303</v>
       </c>
       <c r="H14" s="91" t="s">
-        <v>1732</v>
+        <v>1808</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="J14" s="109" t="s">
         <v>1300</v>
@@ -10558,10 +10563,10 @@
         <v>1301</v>
       </c>
       <c r="H15" s="91" t="s">
-        <v>1735</v>
+        <v>1809</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="J15" s="109" t="s">
         <v>1300</v>
@@ -10652,7 +10657,7 @@
         <v>1190</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="J16" s="82" t="s">
         <v>1189</v>
@@ -10747,7 +10752,7 @@
         <v>1340</v>
       </c>
       <c r="I17" s="85" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="J17" s="82" t="s">
         <v>1182</v>
@@ -10840,7 +10845,7 @@
         <v>1192</v>
       </c>
       <c r="I18" s="85" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="J18" s="82" t="s">
         <v>1189</v>
@@ -10933,7 +10938,7 @@
         <v>1349</v>
       </c>
       <c r="I19" s="85" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="J19" s="82" t="s">
         <v>1182</v>
@@ -11026,7 +11031,7 @@
         <v>1324</v>
       </c>
       <c r="I20" s="85" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="J20" s="82" t="s">
         <v>1182</v>
@@ -11119,7 +11124,7 @@
         <v>1309</v>
       </c>
       <c r="I21" s="85" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="J21" s="82" t="s">
         <v>1182</v>
@@ -11212,7 +11217,7 @@
         <v>1264</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="J22" s="98" t="s">
         <v>1182</v>
@@ -11303,7 +11308,7 @@
         <v>1319</v>
       </c>
       <c r="I23" s="85" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="J23" s="82" t="s">
         <v>1182</v>
@@ -11396,7 +11401,7 @@
         <v>1730</v>
       </c>
       <c r="I24" s="85" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="J24" s="82" t="s">
         <v>1182</v>
@@ -11489,7 +11494,7 @@
         <v>1312</v>
       </c>
       <c r="I25" s="85" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="J25" s="82" t="s">
         <v>1182</v>
@@ -11582,7 +11587,7 @@
         <v>1312</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="J26" s="82" t="s">
         <v>1182</v>
@@ -11677,7 +11682,7 @@
         <v>1646</v>
       </c>
       <c r="I27" s="85" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="J27" s="82" t="s">
         <v>1182</v>
@@ -11770,7 +11775,7 @@
         <v>1646</v>
       </c>
       <c r="I28" s="85" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="J28" s="82" t="s">
         <v>1182</v>
@@ -11865,7 +11870,7 @@
         <v>1645</v>
       </c>
       <c r="I29" s="85" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="J29" s="82" t="s">
         <v>1182</v>
@@ -11958,7 +11963,7 @@
         <v>1645</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="J30" s="82" t="s">
         <v>1182</v>
@@ -12053,7 +12058,7 @@
         <v>1229</v>
       </c>
       <c r="I31" s="85" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="J31" s="82" t="s">
         <v>1182</v>
@@ -12148,7 +12153,7 @@
         <v>1229</v>
       </c>
       <c r="I32" s="85" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="J32" s="82" t="s">
         <v>1182</v>
@@ -12243,7 +12248,7 @@
         <v>1219</v>
       </c>
       <c r="I33" s="85" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="J33" s="82" t="s">
         <v>1182</v>
@@ -12335,10 +12340,10 @@
         <v>1273</v>
       </c>
       <c r="H34" s="91" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="I34" s="85" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="J34" s="82" t="s">
         <v>1182</v>
@@ -12433,7 +12438,7 @@
         <v>1276</v>
       </c>
       <c r="I35" s="85" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="J35" s="82" t="s">
         <v>1182</v>
@@ -12525,10 +12530,10 @@
         <v>1297</v>
       </c>
       <c r="H36" s="91" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="I36" s="85" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="J36" s="82" t="s">
         <v>1171</v>
@@ -12618,10 +12623,10 @@
         <v>1291</v>
       </c>
       <c r="H37" s="91" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="I37" s="85" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="J37" s="82" t="s">
         <v>1182</v>
@@ -12716,7 +12721,7 @@
         <v>1293</v>
       </c>
       <c r="I38" s="85" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="J38" s="82" t="s">
         <v>1171</v>
@@ -12811,7 +12816,7 @@
         <v>1280</v>
       </c>
       <c r="I39" s="85" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="J39" s="82" t="s">
         <v>1182</v>
@@ -12906,7 +12911,7 @@
         <v>1267</v>
       </c>
       <c r="I40" s="85" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="J40" s="82" t="s">
         <v>1171</v>
@@ -12998,10 +13003,10 @@
         <v>1204</v>
       </c>
       <c r="H41" s="91" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="I41" s="85" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="J41" s="82" t="s">
         <v>1182</v>
@@ -13093,10 +13098,10 @@
         <v>1205</v>
       </c>
       <c r="H42" s="91" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="I42" s="85" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="J42" s="82" t="s">
         <v>1182</v>
@@ -13191,7 +13196,7 @@
         <v>1212</v>
       </c>
       <c r="I43" s="85" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="J43" s="82" t="s">
         <v>1182</v>
@@ -13284,7 +13289,7 @@
         <v>1213</v>
       </c>
       <c r="I44" s="85" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="J44" s="82" t="s">
         <v>1182</v>
@@ -13379,7 +13384,7 @@
         <v>1251</v>
       </c>
       <c r="I45" s="85" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="J45" s="84" t="s">
         <v>1171</v>
@@ -13469,10 +13474,10 @@
         <v>1245</v>
       </c>
       <c r="H46" s="91" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="J46" s="84" t="s">
         <v>1171</v>
@@ -13565,7 +13570,7 @@
         <v>1248</v>
       </c>
       <c r="I47" s="85" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="J47" s="82" t="s">
         <v>1182</v>
@@ -13655,10 +13660,10 @@
         <v>1260</v>
       </c>
       <c r="H48" s="91" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="I48" s="85" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="J48" s="82" t="s">
         <v>1182</v>
@@ -13751,7 +13756,7 @@
         <v>1256</v>
       </c>
       <c r="I49" s="85" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="J49" s="82" t="s">
         <v>1182</v>
@@ -13841,10 +13846,10 @@
         <v>1187</v>
       </c>
       <c r="H50" s="91" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="I50" s="85" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="J50" s="84" t="s">
         <v>1171</v>
@@ -13937,7 +13942,7 @@
         <v>1184</v>
       </c>
       <c r="I51" s="85" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="J51" s="84" t="s">
         <v>1171</v>
@@ -14032,7 +14037,7 @@
         <v>1363</v>
       </c>
       <c r="I52" s="85" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="J52" s="84" t="s">
         <v>1171</v>
@@ -14125,7 +14130,7 @@
         <v>1269</v>
       </c>
       <c r="I53" s="85" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="J53" s="84" t="s">
         <v>1171</v>
@@ -14217,10 +14222,10 @@
         <v>1243</v>
       </c>
       <c r="H54" s="91" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="I54" s="85" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="J54" s="84" t="s">
         <v>1171</v>
@@ -14308,10 +14313,10 @@
         <v>1243</v>
       </c>
       <c r="H55" s="91" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="I55" s="85" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="J55" s="84" t="s">
         <v>1171</v>
@@ -14404,7 +14409,7 @@
         <v>1240</v>
       </c>
       <c r="I56" s="85" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="J56" s="82" t="s">
         <v>1189</v>
@@ -14495,7 +14500,7 @@
         <v>1237</v>
       </c>
       <c r="I57" s="85" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="J57" s="82" t="s">
         <v>1189</v>
@@ -14590,7 +14595,7 @@
         <v>1234</v>
       </c>
       <c r="I58" s="85" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="J58" s="82" t="s">
         <v>1189</v>
@@ -14678,10 +14683,10 @@
         <v>1232</v>
       </c>
       <c r="H59" s="91" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="I59" s="85" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="J59" s="84" t="s">
         <v>1171</v>
@@ -14773,10 +14778,10 @@
         <v>1179</v>
       </c>
       <c r="H60" s="91" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="I60" s="85" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="J60" s="84" t="s">
         <v>1171</v>
@@ -14868,10 +14873,10 @@
         <v>1177</v>
       </c>
       <c r="H61" s="91" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="I61" s="85" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="J61" s="84" t="s">
         <v>1171</v>
@@ -14963,10 +14968,10 @@
         <v>1172</v>
       </c>
       <c r="H62" s="91" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="J62" s="84" t="s">
         <v>1171</v>
@@ -15058,10 +15063,10 @@
         <v>1724</v>
       </c>
       <c r="H63" s="91" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="I63" s="85" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="J63" s="84" t="s">
         <v>1171</v>
@@ -15147,7 +15152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB99215-5779-42A6-9088-454918C66E3D}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
@@ -17422,16 +17427,42 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A3D0F2-5A7C-4C8C-8BBD-F0DBE0AF01A1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437A88B4-6D44-41E5-AA99-A727054224E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726B9559-5016-4120-B9D4-D87ECBDDFECD}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFEF2CB"/>
   </sheetPr>
   <dimension ref="A1:AB1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -17875,7 +17906,7 @@
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" hidden="1">
+    <row r="7" spans="1:28" ht="15.75">
       <c r="A7" s="24" t="s">
         <v>453</v>
       </c>
@@ -17940,7 +17971,7 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" hidden="1">
+    <row r="8" spans="1:28" ht="15.75">
       <c r="A8" s="24" t="s">
         <v>453</v>
       </c>
@@ -18005,7 +18036,7 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" hidden="1">
+    <row r="9" spans="1:28" ht="15.75">
       <c r="A9" s="24" t="s">
         <v>453</v>
       </c>
@@ -18070,7 +18101,7 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="15.75" hidden="1">
+    <row r="10" spans="1:28" ht="15.75">
       <c r="A10" s="24" t="s">
         <v>453</v>
       </c>
@@ -18135,7 +18166,7 @@
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" hidden="1">
+    <row r="11" spans="1:28" ht="15.75">
       <c r="A11" s="24" t="s">
         <v>453</v>
       </c>
@@ -18200,7 +18231,7 @@
       <c r="AA11" s="5"/>
       <c r="AB11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="15.75" hidden="1">
+    <row r="12" spans="1:28" ht="15.75">
       <c r="A12" s="24" t="s">
         <v>453</v>
       </c>
@@ -18265,7 +18296,7 @@
       <c r="AA12" s="5"/>
       <c r="AB12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="15.75" hidden="1">
+    <row r="13" spans="1:28" ht="15.75">
       <c r="A13" s="24" t="s">
         <v>453</v>
       </c>
@@ -18330,7 +18361,7 @@
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" hidden="1">
+    <row r="14" spans="1:28" ht="15.75">
       <c r="A14" s="24" t="s">
         <v>453</v>
       </c>
@@ -18395,7 +18426,7 @@
       <c r="AA14" s="5"/>
       <c r="AB14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="15.75" hidden="1">
+    <row r="15" spans="1:28" ht="15.75">
       <c r="A15" s="24" t="s">
         <v>453</v>
       </c>
@@ -18460,7 +18491,7 @@
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" hidden="1">
+    <row r="16" spans="1:28" ht="15.75">
       <c r="A16" s="24" t="s">
         <v>453</v>
       </c>
@@ -18525,7 +18556,7 @@
       <c r="AA16" s="5"/>
       <c r="AB16" s="5"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" hidden="1">
+    <row r="17" spans="1:28" ht="15.75">
       <c r="A17" s="24" t="s">
         <v>453</v>
       </c>
@@ -18590,7 +18621,7 @@
       <c r="AA17" s="5"/>
       <c r="AB17" s="5"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" hidden="1">
+    <row r="18" spans="1:28" ht="15.75">
       <c r="A18" s="24" t="s">
         <v>453</v>
       </c>
@@ -18655,7 +18686,7 @@
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" hidden="1">
+    <row r="19" spans="1:28" ht="15.75">
       <c r="A19" s="24" t="s">
         <v>453</v>
       </c>
@@ -18720,7 +18751,7 @@
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" hidden="1">
+    <row r="20" spans="1:28" ht="15.75">
       <c r="A20" s="24" t="s">
         <v>453</v>
       </c>
@@ -18785,7 +18816,7 @@
       <c r="AA20" s="5"/>
       <c r="AB20" s="13"/>
     </row>
-    <row r="21" spans="1:28" ht="15.75" hidden="1">
+    <row r="21" spans="1:28" ht="15.75">
       <c r="A21" s="24" t="s">
         <v>453</v>
       </c>
@@ -18850,7 +18881,7 @@
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" hidden="1">
+    <row r="22" spans="1:28" ht="15.75">
       <c r="A22" s="24" t="s">
         <v>453</v>
       </c>
@@ -18915,7 +18946,7 @@
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" hidden="1">
+    <row r="23" spans="1:28" ht="15.75">
       <c r="A23" s="24" t="b">
         <v>0</v>
       </c>
@@ -18952,7 +18983,7 @@
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" hidden="1">
+    <row r="24" spans="1:28" ht="15.75">
       <c r="A24" s="24" t="b">
         <v>0</v>
       </c>
@@ -18989,7 +19020,7 @@
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" hidden="1" customHeight="1">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1">
       <c r="A25" s="24" t="b">
         <v>0</v>
       </c>
@@ -19026,7 +19057,7 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1">
       <c r="A26" s="24" t="b">
         <v>0</v>
       </c>
@@ -19091,7 +19122,7 @@
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1">
       <c r="A27" s="24" t="b">
         <v>0</v>
       </c>
@@ -19155,7 +19186,7 @@
       <c r="AA27" s="13"/>
       <c r="AB27" s="5"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1">
       <c r="A28" s="24" t="b">
         <v>0</v>
       </c>
@@ -19221,7 +19252,7 @@
       <c r="AA28" s="13"/>
       <c r="AB28" s="5"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1">
       <c r="A29" s="24" t="b">
         <v>0</v>
       </c>
@@ -19288,7 +19319,7 @@
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="24" t="b">
         <v>0</v>
       </c>
@@ -19355,7 +19386,7 @@
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1">
       <c r="A31" s="24" t="b">
         <v>0</v>
       </c>
@@ -20399,11 +20430,6 @@
     <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A1:V31" xr:uid="{726B9559-5016-4120-B9D4-D87ECBDDFECD}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="TRUE-PRI1"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V6">
       <sortCondition ref="B1:B31"/>
     </sortState>
@@ -20596,10 +20622,10 @@
   </sheetPr>
   <dimension ref="A1:AT994"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="L137" sqref="L137"/>
+      <selection pane="bottomLeft" activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
@@ -50309,7 +50335,7 @@
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I88 Q5 I90:I1048576 H1:H1048576">
+  <conditionalFormatting sqref="I1:I88 H1:H1048576 Q5 I90:I1048576">
     <cfRule type="containsText" dxfId="104" priority="53" operator="containsText" text="sp_occ_restr">
       <formula>NOT(ISERROR(SEARCH("sp_occ_restr",H1)))</formula>
     </cfRule>
@@ -50324,7 +50350,7 @@
       <formula>"min"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J313 M1:O313 I2:I59 Q5:R5 I93:I155 I163 S1:S195 AQ1:AQ49 AO50:AQ313 S241:S262 H2:H317">
+  <conditionalFormatting sqref="J1:J313 M1:O313 H2:H317 I2:I59 Q5:R5 I93:I155 I163 S1:S195 AQ1:AQ49 AO50:AQ313 S241:S262">
     <cfRule type="cellIs" dxfId="101" priority="65" operator="equal">
       <formula>"min"</formula>
     </cfRule>
@@ -50360,7 +50386,7 @@
       <formula>NOT(ISERROR(SEARCH("null",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576 P1:R1048576 H1:J1 I1:I88 J299:J300 I90:I1048576 M299:O300 H1:H1048576">
+  <conditionalFormatting sqref="L1:L1048576 P1:R1048576 H1:J1 I1:I88 J299:J300 I90:I1048576 H1:H1048576 M299:O300">
     <cfRule type="containsText" dxfId="93" priority="38" operator="containsText" text="Note: these recommendations ">
       <formula>NOT(ISERROR(SEARCH("Note: these recommendations ",H1)))</formula>
     </cfRule>
@@ -50434,7 +50460,7 @@
       <formula>NOT(ISERROR(SEARCH("hr_size",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:S313 I1:J317 E1:H2 G3:H317">
+  <conditionalFormatting sqref="L1:S313 I1:J317 G3:H317 E1:H2">
     <cfRule type="containsText" dxfId="75" priority="78" operator="containsText" text="num_cams">
       <formula>NOT(ISERROR(SEARCH(("num_cams"),(E1))))</formula>
     </cfRule>
@@ -50522,7 +50548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
